--- a/Dream11Project/src/test/resources/TestData.xlsx
+++ b/Dream11Project/src/test/resources/TestData.xlsx
@@ -69,13 +69,13 @@
     <t>FanCode ECS T10 Krefeld</t>
   </si>
   <si>
-    <t>Golden Star Bonn</t>
-  </si>
-  <si>
-    <t>TV &amp; TBV Lemgo</t>
-  </si>
-  <si>
     <t>BellIcon Text</t>
+  </si>
+  <si>
+    <t>Dusseldorf Blackcaps</t>
+  </si>
+  <si>
+    <t>Koln Challengers</t>
   </si>
 </sst>
 </file>
@@ -104,13 +104,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +129,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,21 +172,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF0F0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +502,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,77 +515,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
